--- a/biology/Neurosciences/Hakan_Oruçkaptan/Hakan_Oruçkaptan.xlsx
+++ b/biology/Neurosciences/Hakan_Oruçkaptan/Hakan_Oruçkaptan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hakan_Oru%C3%A7kaptan</t>
+          <t>Hakan_Oruçkaptan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hakan Oruçkaptan (né le 16 février 1959 à Kocaeli et décédé le 2 avril 2017 à Ankara) est un neurochirurgien turc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hakan_Oru%C3%A7kaptan</t>
+          <t>Hakan_Oruçkaptan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de la Faculté de médecine de l'Université Hacettepe à Ankara, en Turquie, il y a fait sa résidence en neurochirurgie en 1995. Par la suite, entre 1997 et 2002, il a effectué son doctorat dans le domaine de la micro-neurochirurgie au sein de l'Institut des neurosciences et de psychiatrie rattaché à l'Université Hacettepe. C'est pendant cette période-là qu'il a gravi les échelons et a été promu professeur[1].
-Hakan Oruçkapan a longtemps lutté contre la maladie de leucémie dont il était atteint, et il a réussi à en guérir. En 2001, il s'est vu offrir un poste aux États-Unis, qu'il a refusé en affirmant qu'il avait « pour but de servir la Turquie[2] ».
-En 2009, il a traité un patient turc atteint du syndrome de Gilles de La Tourette en Suède, et a réussi à le guérir. Au vu du succès de ce traitement, un documentaire consacré à sa vie a été tourné en Suède[3],[4].
-Tout au long de sa carrière, il a réalisé plus de 300 chirurgies. Ces dernières ont été surnommées « des batailles » au vu de leurs difficultés. Il compte parmi les plus célèbres médecins turcs[5].
-Après avoir quitté son poste à l'Université Hacettepe, il a travaillé au sein d'un hôpital privé à Istanbul[5].
-En 2017, il est décédé à l'âge de 58 ans, à l'Hôpital Memorial à Ankara où il était traité pour soigner un cancer du poumon[6]. Il a été enterré à Ankara, dans le cimetière de Gölbaşı[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de la Faculté de médecine de l'Université Hacettepe à Ankara, en Turquie, il y a fait sa résidence en neurochirurgie en 1995. Par la suite, entre 1997 et 2002, il a effectué son doctorat dans le domaine de la micro-neurochirurgie au sein de l'Institut des neurosciences et de psychiatrie rattaché à l'Université Hacettepe. C'est pendant cette période-là qu'il a gravi les échelons et a été promu professeur.
+Hakan Oruçkapan a longtemps lutté contre la maladie de leucémie dont il était atteint, et il a réussi à en guérir. En 2001, il s'est vu offrir un poste aux États-Unis, qu'il a refusé en affirmant qu'il avait « pour but de servir la Turquie ».
+En 2009, il a traité un patient turc atteint du syndrome de Gilles de La Tourette en Suède, et a réussi à le guérir. Au vu du succès de ce traitement, un documentaire consacré à sa vie a été tourné en Suède,.
+Tout au long de sa carrière, il a réalisé plus de 300 chirurgies. Ces dernières ont été surnommées « des batailles » au vu de leurs difficultés. Il compte parmi les plus célèbres médecins turcs.
+Après avoir quitté son poste à l'Université Hacettepe, il a travaillé au sein d'un hôpital privé à Istanbul.
+En 2017, il est décédé à l'âge de 58 ans, à l'Hôpital Memorial à Ankara où il était traité pour soigner un cancer du poumon. Il a été enterré à Ankara, dans le cimetière de Gölbaşı.
 </t>
         </is>
       </c>
